--- a/résultats.xlsx
+++ b/résultats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stani\Documents\modal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D3F861-6B39-4FA0-99D5-4BB4E71205FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A13DD2-B125-42F9-B2B3-F0EBE8FF3AC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DC7B937-7C08-4534-888D-7BA5F8F9BAED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Modèle / dataset</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>fusion ggnet et vgg</t>
+  </si>
+  <si>
+    <t>GoogleNet pretrained</t>
   </si>
 </sst>
 </file>
@@ -93,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -116,14 +119,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385C486E-329C-4D49-9A67-0ABEA305BB83}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G4" sqref="G4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,9 +512,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1">
-        <v>0.65</v>
-      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -546,6 +559,11 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/résultats.xlsx
+++ b/résultats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stani\Documents\modal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A13DD2-B125-42F9-B2B3-F0EBE8FF3AC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A30063A-0D06-4A4A-87F1-511905A48630}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DC7B937-7C08-4534-888D-7BA5F8F9BAED}"/>
   </bookViews>
@@ -96,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,26 +119,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +444,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,7 +485,9 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -512,7 +502,9 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -559,10 +551,16 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/résultats.xlsx
+++ b/résultats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stani\Documents\modal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A30063A-0D06-4A4A-87F1-511905A48630}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BD33FB-8E5B-4514-9A49-400BBCCF7316}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DC7B937-7C08-4534-888D-7BA5F8F9BAED}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{8DC7B937-7C08-4534-888D-7BA5F8F9BAED}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Modèle / dataset</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>GoogleNet pretrained</t>
+  </si>
+  <si>
+    <t>pic à 0,92</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385C486E-329C-4D49-9A67-0ABEA305BB83}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,8 +483,12 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.45</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -496,7 +503,9 @@
       <c r="B3" s="1">
         <v>0.73</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>0.69</v>
+      </c>
       <c r="D3" s="1">
         <v>0.88</v>
       </c>
@@ -545,22 +554,35 @@
         <v>11</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>0.74</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>0.85</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>0.85</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
